--- a/SubwayData/Excel/인천2호선 역간 거리 정보.xlsx
+++ b/SubwayData/Excel/인천2호선 역간 거리 정보.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/WebstormProjects/FreshRoute_BE/SubwayData/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F017E99C-E55A-FC45-BA27-E491AA6B0103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFF4162-97A1-AB49-95D9-FD9E3DFC7F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="500" windowWidth="27900" windowHeight="16940" xr2:uid="{21737B5C-8000-1B41-9689-871694714443}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E16" sqref="E11:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
